--- a/output/modeling/sfa/structured_sfa.xlsx
+++ b/output/modeling/sfa/structured_sfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timothyk\Documents\GitHub\box_office_revenue_prediction\output\modeling\sfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD1F084-4191-4D74-BD8D-56A68E42D0C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DA53E-7320-4768-8714-C0D036A87B8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Auxiliary" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python_output!$A$1:$E$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$B$4:$H$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1089,7 +1090,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1288,26 +1289,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1678,13 +1671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288584C8-70DB-4564-A8EB-D4F1BB9288AF}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1709,7 +1702,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3" s="14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <v>0.2</v>
@@ -1886,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
@@ -2147,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
@@ -2263,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
@@ -2321,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
@@ -2466,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
@@ -2495,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
@@ -2524,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
@@ -2553,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
@@ -2582,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
@@ -2640,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
@@ -2698,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
@@ -2727,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
@@ -2785,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
@@ -2814,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
@@ -2843,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
@@ -2872,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
@@ -2930,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
@@ -2959,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
@@ -2988,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
@@ -3046,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
@@ -3075,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
@@ -3191,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
@@ -3249,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
@@ -3307,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
@@ -3336,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
@@ -3365,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
@@ -3394,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
@@ -3423,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
@@ -3452,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
@@ -3481,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
@@ -3510,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
@@ -3539,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
@@ -3568,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
@@ -3626,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
@@ -3655,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
@@ -3713,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
@@ -3742,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
@@ -3771,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
@@ -3800,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
@@ -3829,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
@@ -3887,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
@@ -3945,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
@@ -3974,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
@@ -4003,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
@@ -4032,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
@@ -4061,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
@@ -4090,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
@@ -4119,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
@@ -4148,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
@@ -4177,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
@@ -4206,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
@@ -4235,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
@@ -4264,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
@@ -4293,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
@@ -4322,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
@@ -4351,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
@@ -4380,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
@@ -4409,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
@@ -4438,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
@@ -4525,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="19" t="s">
         <v>101</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="19" t="s">
         <v>102</v>
       </c>
@@ -4583,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="19" t="s">
         <v>103</v>
       </c>
@@ -4612,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="19" t="s">
         <v>104</v>
       </c>
@@ -4641,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="19" t="s">
         <v>105</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="19" t="s">
         <v>106</v>
       </c>
@@ -4699,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="19" t="s">
         <v>107</v>
       </c>
@@ -4728,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="19" t="s">
         <v>108</v>
       </c>
@@ -4757,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="19" t="s">
         <v>109</v>
       </c>
@@ -4786,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="19" t="s">
         <v>110</v>
       </c>
@@ -4815,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="19" t="s">
         <v>111</v>
       </c>
@@ -4844,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="19" t="s">
         <v>112</v>
       </c>
@@ -4873,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="19" t="s">
         <v>113</v>
       </c>
@@ -4902,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="19" t="s">
         <v>114</v>
       </c>
@@ -4931,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="19" t="s">
         <v>115</v>
       </c>
@@ -4960,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="19" t="s">
         <v>116</v>
       </c>
@@ -5018,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="19" t="s">
         <v>118</v>
       </c>
@@ -5047,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="19" t="s">
         <v>119</v>
       </c>
@@ -5076,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="19" t="s">
         <v>120</v>
       </c>
@@ -5105,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="19" t="s">
         <v>121</v>
       </c>
@@ -5134,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="19" t="s">
         <v>122</v>
       </c>
@@ -5163,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="19" t="s">
         <v>123</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="19" t="s">
         <v>124</v>
       </c>
@@ -5221,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="19" t="s">
         <v>125</v>
       </c>
@@ -5250,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="19" t="s">
         <v>126</v>
       </c>
@@ -5279,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" s="19" t="s">
         <v>127</v>
       </c>
@@ -5308,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="19" t="s">
         <v>128</v>
       </c>
@@ -5337,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" s="19" t="s">
         <v>129</v>
       </c>
@@ -5366,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" s="19" t="s">
         <v>130</v>
       </c>
@@ -5395,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" s="19" t="s">
         <v>131</v>
       </c>
@@ -5424,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" s="19" t="s">
         <v>132</v>
       </c>
@@ -5453,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="19" t="s">
         <v>133</v>
       </c>
@@ -5482,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" s="19" t="s">
         <v>134</v>
       </c>
@@ -5511,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="19" t="s">
         <v>135</v>
       </c>
@@ -5540,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" s="19" t="s">
         <v>136</v>
       </c>
@@ -5569,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" s="19" t="s">
         <v>137</v>
       </c>
@@ -5598,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" s="19" t="s">
         <v>138</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" s="19" t="s">
         <v>139</v>
       </c>
@@ -5656,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="19" t="s">
         <v>140</v>
       </c>
@@ -5685,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" s="19" t="s">
         <v>141</v>
       </c>
@@ -5714,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" s="19" t="s">
         <v>142</v>
       </c>
@@ -5743,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" s="19" t="s">
         <v>143</v>
       </c>
@@ -5772,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" s="19" t="s">
         <v>144</v>
       </c>
@@ -5801,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" s="19" t="s">
         <v>145</v>
       </c>
@@ -5830,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" s="19" t="s">
         <v>146</v>
       </c>
@@ -5859,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" s="19" t="s">
         <v>147</v>
       </c>
@@ -5888,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" s="19" t="s">
         <v>148</v>
       </c>
@@ -5917,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" s="19" t="s">
         <v>149</v>
       </c>
@@ -5946,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" s="19" t="s">
         <v>150</v>
       </c>
@@ -5975,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" s="19" t="s">
         <v>151</v>
       </c>
@@ -6004,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" s="19" t="s">
         <v>152</v>
       </c>
@@ -6033,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" s="19" t="s">
         <v>153</v>
       </c>
@@ -6062,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" s="19" t="s">
         <v>154</v>
       </c>
@@ -6120,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" s="19" t="s">
         <v>156</v>
       </c>
@@ -6149,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" s="19" t="s">
         <v>157</v>
       </c>
@@ -6207,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" s="19" t="s">
         <v>159</v>
       </c>
@@ -6236,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" s="19" t="s">
         <v>160</v>
       </c>
@@ -6265,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" s="19" t="s">
         <v>161</v>
       </c>
@@ -6294,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" s="19" t="s">
         <v>162</v>
       </c>
@@ -6323,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" s="19" t="s">
         <v>163</v>
       </c>
@@ -6352,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" s="19" t="s">
         <v>164</v>
       </c>
@@ -6381,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" s="19" t="s">
         <v>165</v>
       </c>
@@ -6498,23 +6491,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H168" xr:uid="{D87C40C3-1AB8-41BB-A7E0-F6936DFA263B}">
-    <filterColumn colId="4">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:H168" xr:uid="{D87C40C3-1AB8-41BB-A7E0-F6936DFA263B}"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;$G$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;$F$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISNUMBER(H1),H1&gt;$H$3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6530,7 +6519,7 @@
   <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9347,6 +9336,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E165" xr:uid="{FEC1B0F1-3EFE-40D4-AD77-26B1C889C61D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/output/modeling/sfa/structured_sfa.xlsx
+++ b/output/modeling/sfa/structured_sfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timothyk\Documents\GitHub\box_office_revenue_prediction\output\modeling\sfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A9CF50-77DE-461F-9654-76F19B8A6F6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D6546-25C1-4DE8-B633-1C0A8C115F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python_output!$A$1:$E$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$B$4:$H$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$B$4:$H$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="452">
   <si>
     <t>missing_pct</t>
   </si>
@@ -1376,6 +1376,12 @@
   </si>
   <si>
     <t>Indicator for production company being 'Franchise Pictures'</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood optimization failed to converge. Check mle_retvals</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1597,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1995,10 +2017,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2023,10 +2045,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="10">
         <v>0.3</v>
@@ -2077,7 +2099,7 @@
       </c>
       <c r="G5" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B5,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.5760875727625288E-8</v>
+        <v>3.6785234439976359E-9</v>
       </c>
       <c r="H5" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B5,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2098,7 +2120,7 @@
       </c>
       <c r="E6" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B6,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-3.2766296775605393E-2</v>
+        <v>-3.2766296775605407E-2</v>
       </c>
       <c r="F6" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B6,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
@@ -2106,7 +2128,7 @@
       </c>
       <c r="G6" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B6,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.21249855792636321</v>
+        <v>0.2176903550506</v>
       </c>
       <c r="H6" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B6,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2135,7 +2157,7 @@
       </c>
       <c r="G7" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B7,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.1477371248085431E-3</v>
+        <v>8.3258744517042535E-4</v>
       </c>
       <c r="H7" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B7,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2164,7 +2186,7 @@
       </c>
       <c r="G8" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B8,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.1127522490565652E-3</v>
+        <v>1.62829728217167E-3</v>
       </c>
       <c r="H8" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B8,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2193,7 +2215,7 @@
       </c>
       <c r="G9" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B9,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.2827635467750179E-2</v>
+        <v>1.167790218183975E-2</v>
       </c>
       <c r="H9" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B9,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2222,7 +2244,7 @@
       </c>
       <c r="G10" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B10,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.0266823287789271E-2</v>
+        <v>1.793250170212362E-2</v>
       </c>
       <c r="H10" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B10,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2251,7 +2273,7 @@
       </c>
       <c r="G11" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B11,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.7845622757756919E-6</v>
+        <v>1.7277508820176951E-6</v>
       </c>
       <c r="H11" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B11,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2280,7 +2302,7 @@
       </c>
       <c r="G12" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B12,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.91301698750472171</v>
+        <v>0.91299147375048784</v>
       </c>
       <c r="H12" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B12,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2309,7 +2331,7 @@
       </c>
       <c r="G13" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B13,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.87847235651887201</v>
+        <v>0.87840531027578572</v>
       </c>
       <c r="H13" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B13,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2338,7 +2360,7 @@
       </c>
       <c r="G14" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B14,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.68383261811671159</v>
+        <v>0.68337120881071378</v>
       </c>
       <c r="H14" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B14,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2367,7 +2389,7 @@
       </c>
       <c r="G15" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B15,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.4972844841736745E-4</v>
+        <v>6.5037535614948276E-4</v>
       </c>
       <c r="H15" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B15,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2396,7 +2418,7 @@
       </c>
       <c r="G16" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B16,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.150316059392757E-4</v>
+        <v>2.9541145089472989E-5</v>
       </c>
       <c r="H16" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B16,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2425,7 +2447,7 @@
       </c>
       <c r="G17" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B17,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.82640561772067289</v>
+        <v>0.82583371032057529</v>
       </c>
       <c r="H17" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B17,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2454,7 +2476,7 @@
       </c>
       <c r="G18" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B18,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.409514069191938E-3</v>
+        <v>4.3815370683407961E-3</v>
       </c>
       <c r="H18" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B18,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2483,7 +2505,7 @@
       </c>
       <c r="G19" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B19,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.4229840351616878E-3</v>
+        <v>1.4430062864113969E-3</v>
       </c>
       <c r="H19" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B19,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2512,7 +2534,7 @@
       </c>
       <c r="G20" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B20,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.28818189344342687</v>
+        <v>0.29521156696849898</v>
       </c>
       <c r="H20" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B20,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2541,7 +2563,7 @@
       </c>
       <c r="G21" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B21,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.4733829447439355</v>
+        <v>0.47828695483658912</v>
       </c>
       <c r="H21" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B21,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2570,7 +2592,7 @@
       </c>
       <c r="G22" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B22,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.92531833878056691</v>
+        <v>0.92518847510314606</v>
       </c>
       <c r="H22" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B22,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2599,7 +2621,7 @@
       </c>
       <c r="G23" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B23,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.8899698462342789E-10</v>
+        <v>3.5565336445221329E-10</v>
       </c>
       <c r="H23" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B23,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2628,7 +2650,7 @@
       </c>
       <c r="G24" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B24,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.6554667023112269E-3</v>
+        <v>2.0833458732700779E-4</v>
       </c>
       <c r="H24" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B24,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2657,7 +2679,7 @@
       </c>
       <c r="G25" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B25,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.93033755601550883</v>
+        <v>0.93046266177546799</v>
       </c>
       <c r="H25" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B25,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2686,7 +2708,7 @@
       </c>
       <c r="G26" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B26,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.7238607633407929E-4</v>
+        <v>4.5597821007712013E-6</v>
       </c>
       <c r="H26" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B26,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2715,7 +2737,7 @@
       </c>
       <c r="G27" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B27,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.60846487317885356</v>
+        <v>0.61208609146647242</v>
       </c>
       <c r="H27" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B27,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2744,7 +2766,7 @@
       </c>
       <c r="G28" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B28,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.13941304303420951</v>
+        <v>0.14935796395930409</v>
       </c>
       <c r="H28" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B28,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2773,7 +2795,7 @@
       </c>
       <c r="G29" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B29,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.1356976300170793</v>
+        <v>0.11641837463367009</v>
       </c>
       <c r="H29" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B29,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2802,7 +2824,7 @@
       </c>
       <c r="G30" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B30,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.7808416896537239E-8</v>
+        <v>4.0544668356413098E-8</v>
       </c>
       <c r="H30" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B30,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2831,7 +2853,7 @@
       </c>
       <c r="G31" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B31,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.1880720161659353</v>
+        <v>0.18015777337001321</v>
       </c>
       <c r="H31" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B31,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2860,7 +2882,7 @@
       </c>
       <c r="G32" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B32,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.2498936974868557E-4</v>
+        <v>1.6354910953781941E-4</v>
       </c>
       <c r="H32" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B32,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2889,7 +2911,7 @@
       </c>
       <c r="G33" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B33,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>8.5774295713114554E-2</v>
+        <v>7.7571107052875288E-2</v>
       </c>
       <c r="H33" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B33,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2918,7 +2940,7 @@
       </c>
       <c r="G34" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B34,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.425583950663413E-3</v>
+        <v>5.7331435494443832E-4</v>
       </c>
       <c r="H34" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B34,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2947,7 +2969,7 @@
       </c>
       <c r="G35" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B35,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.0210899991347461E-3</v>
+        <v>1.2283606573447619E-3</v>
       </c>
       <c r="H35" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B35,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -2976,7 +2998,7 @@
       </c>
       <c r="G36" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B36,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.1770786003982587E-2</v>
+        <v>2.3278501741920799E-2</v>
       </c>
       <c r="H36" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B36,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3005,7 +3027,7 @@
       </c>
       <c r="G37" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B37,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.6032046408530562E-2</v>
+        <v>2.4310740955173431E-2</v>
       </c>
       <c r="H37" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B37,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3034,7 +3056,7 @@
       </c>
       <c r="G38" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B38,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>6.3919192929633778E-3</v>
+        <v>1.965590721230588E-3</v>
       </c>
       <c r="H38" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B38,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3063,7 +3085,7 @@
       </c>
       <c r="G39" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B39,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.24963631154387991</v>
+        <v>0.25898676969581758</v>
       </c>
       <c r="H39" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B39,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3092,7 +3114,7 @@
       </c>
       <c r="G40" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B40,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.48361888477535347</v>
+        <v>0.48921536958091227</v>
       </c>
       <c r="H40" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B40,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3121,7 +3143,7 @@
       </c>
       <c r="G41" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B41,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.28299831925963798</v>
+        <v>0.29196244327582899</v>
       </c>
       <c r="H41" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B41,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3150,7 +3172,7 @@
       </c>
       <c r="G42" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B42,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.10064993563140109</v>
+        <v>7.854017005133053E-2</v>
       </c>
       <c r="H42" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B42,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3179,7 +3201,7 @@
       </c>
       <c r="G43" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B43,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.9192182256092771E-2</v>
+        <v>6.9506436288821099E-3</v>
       </c>
       <c r="H43" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B43,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3208,7 +3230,7 @@
       </c>
       <c r="G44" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B44,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.76771219321420991</v>
+        <v>0.76590302724883119</v>
       </c>
       <c r="H44" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B44,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3237,7 +3259,7 @@
       </c>
       <c r="G45" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B45,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.0144632611066801E-2</v>
+        <v>2.362256311496623E-2</v>
       </c>
       <c r="H45" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B45,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3266,7 +3288,7 @@
       </c>
       <c r="G46" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B46,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.34150938893840599</v>
+        <v>0.32583242522210371</v>
       </c>
       <c r="H46" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B46,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3295,7 +3317,7 @@
       </c>
       <c r="G47" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B47,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.3627993349387863E-2</v>
+        <v>2.3133733760999042E-2</v>
       </c>
       <c r="H47" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B47,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3324,7 +3346,7 @@
       </c>
       <c r="G48" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B48,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.93897728106772027</v>
+        <v>0.93883416329828984</v>
       </c>
       <c r="H48" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B48,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3353,7 +3375,7 @@
       </c>
       <c r="G49" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B49,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.87550500925575769</v>
+        <v>0.87494065941122767</v>
       </c>
       <c r="H49" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B49,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3382,7 +3404,7 @@
       </c>
       <c r="G50" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B50,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.6001679742854924</v>
+        <v>0.59357959603267574</v>
       </c>
       <c r="H50" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B50,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3411,7 +3433,7 @@
       </c>
       <c r="G51" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B51,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.7178567302023203E-2</v>
+        <v>5.4156620117838498E-2</v>
       </c>
       <c r="H51" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B51,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3440,7 +3462,7 @@
       </c>
       <c r="G52" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B52,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.351504738879201E-2</v>
+        <v>6.2195143054116766E-3</v>
       </c>
       <c r="H52" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B52,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3469,7 +3491,7 @@
       </c>
       <c r="G53" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B53,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.25485422519472489</v>
+        <v>0.22954917646883369</v>
       </c>
       <c r="H53" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B53,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3498,7 +3520,7 @@
       </c>
       <c r="G54" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B54,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.1149992982188601</v>
+        <v>8.5261373334975743E-2</v>
       </c>
       <c r="H54" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B54,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3527,7 +3549,7 @@
       </c>
       <c r="G55" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B55,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.50086842329254089</v>
+        <v>0.48914566335172549</v>
       </c>
       <c r="H55" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B55,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3556,7 +3578,7 @@
       </c>
       <c r="G56" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B56,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.84153336559143832</v>
+        <v>0.84036206613409914</v>
       </c>
       <c r="H56" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B56,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3585,7 +3607,7 @@
       </c>
       <c r="G57" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B57,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.34164895734721729</v>
+        <v>0.31811083969902321</v>
       </c>
       <c r="H57" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B57,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3614,7 +3636,7 @@
       </c>
       <c r="G58" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B58,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.38953485097804169</v>
+        <v>0.36883640366984338</v>
       </c>
       <c r="H58" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B58,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3643,7 +3665,7 @@
       </c>
       <c r="G59" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B59,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.9342596858666122E-2</v>
+        <v>2.1978458796489238E-2</v>
       </c>
       <c r="H59" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B59,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3672,7 +3694,7 @@
       </c>
       <c r="G60" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B60,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.79645047361148991</v>
+        <v>0.7983185396389223</v>
       </c>
       <c r="H60" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B60,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3701,7 +3723,7 @@
       </c>
       <c r="G61" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B61,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.90169396402088886</v>
+        <v>0.90211418989723247</v>
       </c>
       <c r="H61" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B61,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3730,7 +3752,7 @@
       </c>
       <c r="G62" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B62,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.1024153879632793E-2</v>
+        <v>7.284851227951453E-3</v>
       </c>
       <c r="H62" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B62,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3759,7 +3781,7 @@
       </c>
       <c r="G63" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B63,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>6.3865242686975993E-2</v>
+        <v>1.2541425361058459E-2</v>
       </c>
       <c r="H63" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B63,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3788,7 +3810,7 @@
       </c>
       <c r="G64" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B64,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.57018462619196009</v>
+        <v>0.55957237131283888</v>
       </c>
       <c r="H64" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B64,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3817,7 +3839,7 @@
       </c>
       <c r="G65" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B65,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.72483722089475988</v>
+        <v>0.72052244356752038</v>
       </c>
       <c r="H65" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B65,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3846,7 +3868,7 @@
       </c>
       <c r="G66" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B66,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.64395553654634452</v>
+        <v>0.63667900516099274</v>
       </c>
       <c r="H66" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B66,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3875,7 +3897,7 @@
       </c>
       <c r="G67" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B67,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.44330286510391792</v>
+        <v>0.4257951938141934</v>
       </c>
       <c r="H67" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B67,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3904,7 +3926,7 @@
       </c>
       <c r="G68" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B68,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.9073764502574464</v>
+        <v>0.90690346087693263</v>
       </c>
       <c r="H68" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B68,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3933,7 +3955,7 @@
       </c>
       <c r="G69" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B69,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.23033130993936921</v>
+        <v>0.1908230999544013</v>
       </c>
       <c r="H69" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B69,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3962,7 +3984,7 @@
       </c>
       <c r="G70" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B70,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.11959935970543251</v>
+        <v>0.1314382336840951</v>
       </c>
       <c r="H70" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B70,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -3991,7 +4013,7 @@
       </c>
       <c r="G71" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B71,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.16707876100301641</v>
+        <v>0.1803383948598794</v>
       </c>
       <c r="H71" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B71,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4020,7 +4042,7 @@
       </c>
       <c r="G72" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B72,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>9.0417997812461473E-2</v>
+        <v>4.4752126682087237E-2</v>
       </c>
       <c r="H72" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B72,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4049,7 +4071,7 @@
       </c>
       <c r="G73" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B73,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.45350341497501467</v>
+        <v>0.46350285283419512</v>
       </c>
       <c r="H73" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B73,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4078,7 +4100,7 @@
       </c>
       <c r="G74" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B74,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.88638622708892889</v>
+        <v>0.88704664817504519</v>
       </c>
       <c r="H74" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B74,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4107,7 +4129,7 @@
       </c>
       <c r="G75" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B75,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.50138137067771371</v>
+        <v>0.51063673017590083</v>
       </c>
       <c r="H75" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B75,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4136,7 +4158,7 @@
       </c>
       <c r="G76" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B76,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.42237362233268549</v>
+        <v>0.39706882776485958</v>
       </c>
       <c r="H76" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B76,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4165,7 +4187,7 @@
       </c>
       <c r="G77" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B77,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99197986946618955</v>
+        <v>0.99196655529900013</v>
       </c>
       <c r="H77" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B77,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4194,7 +4216,7 @@
       </c>
       <c r="G78" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B78,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.23326055201921059</v>
+        <v>0.24731305557089681</v>
       </c>
       <c r="H78" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B78,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4223,7 +4245,7 @@
       </c>
       <c r="G79" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B79,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.14086318372089859</v>
+        <v>8.9351802781220027E-2</v>
       </c>
       <c r="H79" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B79,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4252,7 +4274,7 @@
       </c>
       <c r="G80" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B80,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.87418839138603821</v>
+        <v>0.87508687198967294</v>
       </c>
       <c r="H80" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B80,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4281,7 +4303,7 @@
       </c>
       <c r="G81" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B81,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.57017071370686734</v>
+        <v>0.55594366611848456</v>
       </c>
       <c r="H81" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B81,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4310,7 +4332,7 @@
       </c>
       <c r="G82" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B82,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>7.1804778609401473E-2</v>
+        <v>1.6435633848309952E-2</v>
       </c>
       <c r="H82" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B82,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4339,7 +4361,7 @@
       </c>
       <c r="G83" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B83,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.1714571141615753E-2</v>
+        <v>4.773423164490212E-2</v>
       </c>
       <c r="H83" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B83,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4368,7 +4390,7 @@
       </c>
       <c r="G84" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B84,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.45210050806886548</v>
+        <v>0.46347296142673922</v>
       </c>
       <c r="H84" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B84,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4397,7 +4419,7 @@
       </c>
       <c r="G85" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B85,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.32519895847621288</v>
+        <v>0.33884782726772211</v>
       </c>
       <c r="H85" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B85,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4426,7 +4448,7 @@
       </c>
       <c r="G86" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B86,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.61191521675870209</v>
+        <v>0.60209350493750602</v>
       </c>
       <c r="H86" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B86,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4455,7 +4477,7 @@
       </c>
       <c r="G87" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B87,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99731324108582309</v>
+        <v>9.4643787862885766E-4</v>
       </c>
       <c r="H87" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B87,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4484,7 +4506,7 @@
       </c>
       <c r="G88" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B88,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.9279109978196231E-3</v>
+        <v>2.9346906603182812E-3</v>
       </c>
       <c r="H88" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B88,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4513,7 +4535,7 @@
       </c>
       <c r="G89" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B89,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.57017071370686689</v>
+        <v>0.55594366611848456</v>
       </c>
       <c r="H89" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B89,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4542,7 +4564,7 @@
       </c>
       <c r="G90" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B90,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.162618825229062E-2</v>
+        <v>1.318055864894326E-2</v>
       </c>
       <c r="H90" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B90,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4571,7 +4593,7 @@
       </c>
       <c r="G91" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B91,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.13694296325658231</v>
+        <v>6.2604937890170784E-2</v>
       </c>
       <c r="H91" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B91,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4580,11 +4602,11 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>380</v>
+        <v>152</v>
       </c>
       <c r="C92" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B92,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Jerry Bruckheimer Films'</v>
+        <v>Indicator for production company being 'Other'</v>
       </c>
       <c r="D92" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B92,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
@@ -4592,15 +4614,15 @@
       </c>
       <c r="E92" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B92,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.4663370687934281</v>
+        <v>0.1003423591530237</v>
       </c>
       <c r="F92" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B92,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.1492768955474499E-3</v>
+        <v>1.3638365160730361E-2</v>
       </c>
       <c r="G92" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B92,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.15805680088822141</v>
+        <v>0.41763996562068301</v>
       </c>
       <c r="H92" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B92,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4609,27 +4631,27 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="C93" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B93,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Apatow Productions'</v>
+        <v>Indicator for production company being 'United States of America'</v>
       </c>
       <c r="D93" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B93,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Production Countries</v>
       </c>
       <c r="E93" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B93,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.36460465278907611</v>
+        <v>-0.69801065436802867</v>
       </c>
       <c r="F93" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B93,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.0388569888600831E-3</v>
+        <v>7.0933294406297032E-2</v>
       </c>
       <c r="G93" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B93,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.57017071370686701</v>
+        <v>6.6884600835868561E-7</v>
       </c>
       <c r="H93" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B93,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4638,27 +4660,27 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="C94" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B94,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Malpaso Productions'</v>
+        <v>Indicator for production country being 'United Kingdom'</v>
       </c>
       <c r="D94" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B94,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Production Countries</v>
       </c>
       <c r="E94" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B94,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.77163104146419403</v>
+        <v>0.14501916371178869</v>
       </c>
       <c r="F94" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B94,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.5940669422036549E-3</v>
+        <v>1.7805108692252158E-2</v>
       </c>
       <c r="G94" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B94,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.31054757795303362</v>
+        <v>0.26220494239986109</v>
       </c>
       <c r="H94" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B94,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4667,27 +4689,27 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="C95" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B95,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Alcon Entertainment'</v>
+        <v>Indicator for production country being 'Other'</v>
       </c>
       <c r="D95" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B95,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Production Countries</v>
       </c>
       <c r="E95" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B95,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.2982451013178431</v>
+        <v>0.43008702184029329</v>
       </c>
       <c r="F95" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B95,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.117817380333566E-3</v>
+        <v>8.6247981796263584E-2</v>
       </c>
       <c r="G95" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B95,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.21431262353823879</v>
+        <v>2.0379875671291249E-5</v>
       </c>
       <c r="H95" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B95,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4696,27 +4718,27 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="C96" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B96,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'MTV Films'</v>
+        <v>Indicator for spoken languages being 'English'</v>
       </c>
       <c r="D96" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B96,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Spoken Languages</v>
       </c>
       <c r="E96" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B96,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.540964386583332</v>
+        <v>-0.13310730440779309</v>
       </c>
       <c r="F96" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B96,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.6650066531545029E-3</v>
+        <v>3.7705219137023072E-3</v>
       </c>
       <c r="G96" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B96,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.13694296325658201</v>
+        <v>0.6207876744567149</v>
       </c>
       <c r="H96" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B96,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4725,27 +4747,27 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="C97" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B97,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Pixar Animation Studios'</v>
+        <v>Indicator for spoken languages being 'Other'</v>
       </c>
       <c r="D97" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B97,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Spoken Languages</v>
       </c>
       <c r="E97" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B97,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-29.73992302289307</v>
+        <v>-2.9187372368339109E-2</v>
       </c>
       <c r="F97" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B97,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.6730273336771386E-3</v>
+        <v>6.5272298093403958E-3</v>
       </c>
       <c r="G97" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B97,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99998416616972874</v>
+        <v>0.76175028047023141</v>
       </c>
       <c r="H97" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B97,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4754,27 +4776,27 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="C98" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B98,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Constantin Film Produktion'</v>
+        <v>Indicator for original language being 'en'</v>
       </c>
       <c r="D98" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B98,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Original Language</v>
       </c>
       <c r="E98" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B98,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.60353907398860995</v>
+        <v>-0.44476038477460739</v>
       </c>
       <c r="F98" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B98,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.562607426989771E-3</v>
+        <v>1.8846995092145491E-2</v>
       </c>
       <c r="G98" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B98,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.43318157512492111</v>
+        <v>4.1355433547730837E-2</v>
       </c>
       <c r="H98" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B98,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4783,27 +4805,27 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C99" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B99,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Intermedia Films'</v>
+        <v>Indicator for original language being 'fr'</v>
       </c>
       <c r="D99" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B99,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Original Language</v>
       </c>
       <c r="E99" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B99,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.9267438672429871</v>
+        <v>1.018457873221994</v>
       </c>
       <c r="F99" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B99,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.193397054966505E-2</v>
+        <v>9.8790721997599196E-3</v>
       </c>
       <c r="G99" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B99,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.3884606086161759E-3</v>
+        <v>2.4103530535049229E-2</v>
       </c>
       <c r="H99" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B99,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4812,27 +4834,27 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>388</v>
+        <v>163</v>
       </c>
       <c r="C100" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B100,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Di Bonaventura Pictures'</v>
+        <v>Indicator for original language being 'Other'</v>
       </c>
       <c r="D100" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B100,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Original Language</v>
       </c>
       <c r="E100" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B100,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.2982451013178431</v>
+        <v>0.27150318616512359</v>
       </c>
       <c r="F100" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B100,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.117817380333566E-3</v>
+        <v>8.9679228923857934E-3</v>
       </c>
       <c r="G100" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B100,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.21431262353823891</v>
+        <v>0.27371551873783601</v>
       </c>
       <c r="H100" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B100,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4841,27 +4863,27 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>389</v>
+        <v>164</v>
       </c>
       <c r="C101" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B101,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Nickelodeon Movies'</v>
+        <v>Indicator for movie having a homepage</v>
       </c>
       <c r="D101" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B101,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Other Indicators</v>
       </c>
       <c r="E101" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B101,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.3857752850635949</v>
+        <v>-0.35273989808508122</v>
       </c>
       <c r="F101" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B101,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.633547137940397E-3</v>
+        <v>8.4290133680682278E-2</v>
       </c>
       <c r="G101" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B101,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.18347359414570941</v>
+        <v>1.5962320674379481E-4</v>
       </c>
       <c r="H101" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B101,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4870,27 +4892,27 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="C102" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B102,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Marvel Enterprises'</v>
+        <v>Indicator for movie having a tagline</v>
       </c>
       <c r="D102" s="16" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B102,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
+        <v>Other Indicators</v>
       </c>
       <c r="E102" s="26">
         <f>INDEX(python_output!$A:$I,MATCH($B102,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-22.48473231000861</v>
+        <v>-1.033094842400597</v>
       </c>
       <c r="F102" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B102,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>7.2202166064982984E-3</v>
+        <v>8.1659350469249992E-2</v>
       </c>
       <c r="G102" s="11">
         <f>INDEX(python_output!$A:$I,MATCH($B102,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99949150778735185</v>
+        <v>7.2393944669416833E-11</v>
       </c>
       <c r="H102" s="12">
         <f>INDEX(python_output!$A:$I,MATCH($B102,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
@@ -4898,673 +4920,64 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C103" s="16" t="str">
+      <c r="B103" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="18" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B103,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Revolution Sun Studios'</v>
-      </c>
-      <c r="D103" s="16" t="str">
+        <v>Indicator for movie being released in the summer months</v>
+      </c>
+      <c r="D103" s="18" t="str">
         <f>INDEX(Auxiliary!$B:$D,MATCH($B103,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E103" s="26">
+        <v>Other Indicators</v>
+      </c>
+      <c r="E103" s="27">
         <f>INDEX(python_output!$A:$I,MATCH($B103,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-33.184417178577867</v>
-      </c>
-      <c r="F103" s="11">
+        <v>-0.30576010076752358</v>
+      </c>
+      <c r="F103" s="13">
         <f>INDEX(python_output!$A:$I,MATCH($B103,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>6.7044868488910234E-3</v>
-      </c>
-      <c r="G103" s="11">
+        <v>6.6092813710872278E-2</v>
+      </c>
+      <c r="G103" s="13">
         <f>INDEX(python_output!$A:$I,MATCH($B103,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99999656664552494</v>
-      </c>
-      <c r="H103" s="12">
+        <v>1.8860954944719551E-3</v>
+      </c>
+      <c r="H103" s="14">
         <f>INDEX(python_output!$A:$I,MATCH($B103,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C104" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B104,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Vertigo Entertainment'</v>
-      </c>
-      <c r="D104" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B104,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E104" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B104,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.2024163837782831</v>
-      </c>
-      <c r="F104" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B104,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.602087622726291E-3</v>
-      </c>
-      <c r="G104" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B104,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.25205231424190178</v>
-      </c>
-      <c r="H104" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B104,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C105" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B105,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Anonymous Content'</v>
-      </c>
-      <c r="D105" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B105,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E105" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B105,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.77150049480646676</v>
-      </c>
-      <c r="F105" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B105,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.1659414634693803E-3</v>
-      </c>
-      <c r="G105" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B105,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.18898090687920091</v>
-      </c>
-      <c r="H105" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B105,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C106" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B106,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Walden Media'</v>
-      </c>
-      <c r="D106" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B106,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E106" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B106,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.1234958530630673</v>
-      </c>
-      <c r="F106" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B106,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.3979179917496012E-4</v>
-      </c>
-      <c r="G106" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B106,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.85558046728652759</v>
-      </c>
-      <c r="H106" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B106,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C107" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B107,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Lucasfilm'</v>
-      </c>
-      <c r="D107" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B107,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E107" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B107,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.385775285063594</v>
-      </c>
-      <c r="F107" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B107,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>4.633547137940397E-3</v>
-      </c>
-      <c r="G107" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B107,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.18347359414570971</v>
-      </c>
-      <c r="H107" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B107,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C108" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B108,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Studio Canal'</v>
-      </c>
-      <c r="D108" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B108,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E108" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B108,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.51915033365202479</v>
-      </c>
-      <c r="F108" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B108,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.134481948255496E-3</v>
-      </c>
-      <c r="G108" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B108,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.35358866627997187</v>
-      </c>
-      <c r="H108" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B108,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C109" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B109,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Double Feature Films'</v>
-      </c>
-      <c r="D109" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B109,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E109" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B109,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.1948168771061556E-3</v>
-      </c>
-      <c r="F109" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B109,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.4062041567907141E-5</v>
-      </c>
-      <c r="G109" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B109,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.99379726821927539</v>
-      </c>
-      <c r="H109" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B109,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C110" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B110,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Dark Castle Entertainment'</v>
-      </c>
-      <c r="D110" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B110,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E110" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B110,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.41274164749102821</v>
-      </c>
-      <c r="F110" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B110,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.0950017525187552E-3</v>
-      </c>
-      <c r="G110" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B110,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.50149439312165056</v>
-      </c>
-      <c r="H110" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B110,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C111" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B111,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Phoenix Pictures'</v>
-      </c>
-      <c r="D111" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B111,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E111" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B111,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.28353053561204938</v>
-      </c>
-      <c r="F111" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B111,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.015418154168835E-3</v>
-      </c>
-      <c r="G111" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B111,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.72030873237309279</v>
-      </c>
-      <c r="H111" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B111,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C112" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B112,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Franchise Pictures'</v>
-      </c>
-      <c r="D112" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B112,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E112" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B112,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.421526463300578</v>
-      </c>
-      <c r="F112" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B112,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.503636977583001E-2</v>
-      </c>
-      <c r="G112" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B112,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.11729170981169E-3</v>
-      </c>
-      <c r="H112" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B112,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B113,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'Other'</v>
-      </c>
-      <c r="D113" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B113,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Companies</v>
-      </c>
-      <c r="E113" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B113,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.23045254671294099</v>
-      </c>
-      <c r="F113" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B113,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.4219431381874887E-2</v>
-      </c>
-      <c r="G113" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B113,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>5.59046390533251E-2</v>
-      </c>
-      <c r="H113" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B113,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B114,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production company being 'United States of America'</v>
-      </c>
-      <c r="D114" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B114,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Countries</v>
-      </c>
-      <c r="E114" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B114,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.69801065436802867</v>
-      </c>
-      <c r="F114" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B114,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>7.0933294406297032E-2</v>
-      </c>
-      <c r="G114" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B114,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.3500825012310251E-7</v>
-      </c>
-      <c r="H114" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B114,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C115" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B115,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production country being 'United Kingdom'</v>
-      </c>
-      <c r="D115" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B115,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Countries</v>
-      </c>
-      <c r="E115" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B115,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.14501916371178869</v>
-      </c>
-      <c r="F115" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B115,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.7805108692252158E-2</v>
-      </c>
-      <c r="G115" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B115,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.25842270058676547</v>
-      </c>
-      <c r="H115" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B115,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B116,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for production country being 'Other'</v>
-      </c>
-      <c r="D116" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B116,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Production Countries</v>
-      </c>
-      <c r="E116" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B116,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.43008702184029329</v>
-      </c>
-      <c r="F116" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B116,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>8.6247981796263584E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B116,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.6308034168369039E-5</v>
-      </c>
-      <c r="H116" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B116,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B117,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for spoken languages being 'English'</v>
-      </c>
-      <c r="D117" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B117,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Spoken Languages</v>
-      </c>
-      <c r="E117" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B117,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.13310730440779309</v>
-      </c>
-      <c r="F117" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B117,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.7705219137023072E-3</v>
-      </c>
-      <c r="G117" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B117,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.61740516982005011</v>
-      </c>
-      <c r="H117" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B117,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B118,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for spoken languages being 'Other'</v>
-      </c>
-      <c r="D118" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B118,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Spoken Languages</v>
-      </c>
-      <c r="E118" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B118,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-2.9187372368339109E-2</v>
-      </c>
-      <c r="F118" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B118,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>6.5272298093403958E-3</v>
-      </c>
-      <c r="G118" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B118,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.76193796410917791</v>
-      </c>
-      <c r="H118" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B118,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B119,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for original language being 'en'</v>
-      </c>
-      <c r="D119" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B119,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Original Language</v>
-      </c>
-      <c r="E119" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B119,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.44476038477460739</v>
-      </c>
-      <c r="F119" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B119,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.8846995092145491E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B119,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>3.6531037287372503E-2</v>
-      </c>
-      <c r="H119" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B119,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C120" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B120,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for original language being 'fr'</v>
-      </c>
-      <c r="D120" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B120,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Original Language</v>
-      </c>
-      <c r="E120" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B120,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.018457873221994</v>
-      </c>
-      <c r="F120" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B120,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>9.8790721997599196E-3</v>
-      </c>
-      <c r="G120" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B120,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.043699599515204E-2</v>
-      </c>
-      <c r="H120" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B120,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B121,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for original language being 'Other'</v>
-      </c>
-      <c r="D121" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B121,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Original Language</v>
-      </c>
-      <c r="E121" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B121,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.27150318616512359</v>
-      </c>
-      <c r="F121" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B121,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>8.9679228923857934E-3</v>
-      </c>
-      <c r="G121" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B121,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>0.26524735216218742</v>
-      </c>
-      <c r="H121" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B121,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C122" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B122,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for movie having a homepage</v>
-      </c>
-      <c r="D122" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B122,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Other Indicators</v>
-      </c>
-      <c r="E122" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B122,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.35273989808508122</v>
-      </c>
-      <c r="F122" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B122,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>8.4290133680682278E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B122,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>1.8088219275913821E-4</v>
-      </c>
-      <c r="H122" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B122,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B123,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for movie having a tagline</v>
-      </c>
-      <c r="D123" s="16" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B123,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Other Indicators</v>
-      </c>
-      <c r="E123" s="26">
-        <f>INDEX(python_output!$A:$I,MATCH($B123,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-1.033094842400597</v>
-      </c>
-      <c r="F123" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B123,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>8.1659350469249992E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f>INDEX(python_output!$A:$I,MATCH($B123,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.2783652272356551E-11</v>
-      </c>
-      <c r="H123" s="12">
-        <f>INDEX(python_output!$A:$I,MATCH($B123,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B124" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C124" s="18" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B124,Auxiliary!$B:$B,0),MATCH(C$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Indicator for movie being released in the summer months</v>
-      </c>
-      <c r="D124" s="18" t="str">
-        <f>INDEX(Auxiliary!$B:$D,MATCH($B124,Auxiliary!$B:$B,0),MATCH(D$4,Auxiliary!$B$3:$D$3,0))</f>
-        <v>Other Indicators</v>
-      </c>
-      <c r="E124" s="27">
-        <f>INDEX(python_output!$A:$I,MATCH($B124,python_output!$A:$A,0),MATCH(E$4,python_output!$A$1:$I$1,0))</f>
-        <v>-0.30576010076752358</v>
-      </c>
-      <c r="F124" s="13">
-        <f>INDEX(python_output!$A:$I,MATCH($B124,python_output!$A:$A,0),MATCH(F$4,python_output!$A$1:$I$1,0))</f>
-        <v>6.6092813710872278E-2</v>
-      </c>
-      <c r="G124" s="13">
-        <f>INDEX(python_output!$A:$I,MATCH($B124,python_output!$A:$A,0),MATCH(G$4,python_output!$A$1:$I$1,0))</f>
-        <v>2.1227505242452649E-3</v>
-      </c>
-      <c r="H124" s="14">
-        <f>INDEX(python_output!$A:$I,MATCH($B124,python_output!$A:$A,0),MATCH(H$4,python_output!$A$1:$I$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B4:H168" xr:uid="{D87C40C3-1AB8-41BB-A7E0-F6936DFA263B}"/>
-  <conditionalFormatting sqref="G1:G123 G125:G1048576">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <autoFilter ref="B4:H147" xr:uid="{D87C40C3-1AB8-41BB-A7E0-F6936DFA263B}"/>
+  <conditionalFormatting sqref="G104:G1048576 G1:G102">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(ISNUMBER(G1),G1&gt;$G$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F123 F125:F1048576">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="F104:F1048576 F1:F102">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(ISNUMBER(F1),F1&lt;$F$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H123 H125:H1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="H104:H1048576 H1:H102">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(ISNUMBER(H1),H1&gt;$H$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(ISNUMBER(G124),G124&gt;$G$3)</formula>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND(ISNUMBER(G103),G103&gt;$G$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(ISNUMBER(F124),F124&lt;$F$3)</formula>
+  <conditionalFormatting sqref="F103">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(ISNUMBER(F103),F103&lt;$F$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISNUMBER(H124),H124&gt;$H$3)</formula>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(ISNUMBER(H103),H103&gt;$H$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5576,10 +4989,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5592,7 +5005,7 @@
     <col min="6" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>349</v>
       </c>
@@ -5620,8 +5033,11 @@
       <c r="I1" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5635,7 +5051,7 @@
         <v>-6.8745778048831009E-9</v>
       </c>
       <c r="E2">
-        <v>4.5760875727625288E-8</v>
+        <v>3.6785234439976359E-9</v>
       </c>
       <c r="F2">
         <v>1.2002112731663741E-2</v>
@@ -5650,7 +5066,7 @@
         <v>44551430.291036278</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5661,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.2766296775605393E-2</v>
+        <v>-3.2766296775605407E-2</v>
       </c>
       <c r="E3">
-        <v>0.21249855792636321</v>
+        <v>0.2176903550506</v>
       </c>
       <c r="F3">
         <v>5.2426706278707602E-4</v>
@@ -5679,7 +5095,7 @@
         <v>1.6678947372914761</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5693,7 +5109,7 @@
         <v>-7.5923927525101218E-3</v>
       </c>
       <c r="E4">
-        <v>1.1477371248085431E-3</v>
+        <v>8.3258744517042535E-4</v>
       </c>
       <c r="F4">
         <v>3.8528743575528819E-3</v>
@@ -5708,7 +5124,7 @@
         <v>21.10406926317139</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5722,7 +5138,7 @@
         <v>-1.7753125639454411E-2</v>
       </c>
       <c r="E5">
-        <v>2.1127522490565652E-3</v>
+        <v>1.62829728217167E-3</v>
       </c>
       <c r="F5">
         <v>3.4251656923058871E-3</v>
@@ -5737,7 +5153,7 @@
         <v>8.4507889676883199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5751,7 +5167,7 @@
         <v>-7.8073817682886612E-4</v>
       </c>
       <c r="E6">
-        <v>1.2827635467750179E-2</v>
+        <v>1.167790218183975E-2</v>
       </c>
       <c r="F6">
         <v>2.1940182495613358E-3</v>
@@ -5766,7 +5182,7 @@
         <v>150.5916232950041</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5780,7 +5196,7 @@
         <v>-4.272304838267094E-3</v>
       </c>
       <c r="E7">
-        <v>2.0266823287789271E-2</v>
+        <v>1.793250170212362E-2</v>
       </c>
       <c r="F7">
         <v>1.933047620131467E-3</v>
@@ -5795,7 +5211,7 @@
         <v>26.146993552575889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5809,7 +5225,7 @@
         <v>0.43667372931361043</v>
       </c>
       <c r="E8">
-        <v>1.7845622757756919E-6</v>
+        <v>1.7277508820176951E-6</v>
       </c>
       <c r="F8">
         <v>7.8927305387587188E-3</v>
@@ -5824,7 +5240,7 @@
         <v>0.49731419708088082</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5838,7 +5254,7 @@
         <v>-1.047353504110364E-2</v>
       </c>
       <c r="E9">
-        <v>0.91301698750472171</v>
+        <v>0.91299147375048784</v>
       </c>
       <c r="F9">
         <v>4.1192035832304796E-6</v>
@@ -5853,7 +5269,7 @@
         <v>0.47510660124144671</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5867,7 +5283,7 @@
         <v>-1.535860043325152E-2</v>
       </c>
       <c r="E10">
-        <v>0.87847235651887201</v>
+        <v>0.87840531027578572</v>
       </c>
       <c r="F10">
         <v>8.0756035102380608E-6</v>
@@ -5882,7 +5298,7 @@
         <v>0.4538893786988607</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5896,7 +5312,7 @@
         <v>-4.1256708971332247E-2</v>
       </c>
       <c r="E11">
-        <v>0.68383261811671159</v>
+        <v>0.68337120881071378</v>
       </c>
       <c r="F11">
         <v>5.7395816105643149E-5</v>
@@ -5911,7 +5327,7 @@
         <v>0.45134121743794808</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5925,7 +5341,7 @@
         <v>-0.36924448449978509</v>
       </c>
       <c r="E12">
-        <v>5.4972844841736745E-4</v>
+        <v>6.5037535614948276E-4</v>
       </c>
       <c r="F12">
         <v>4.0111761439397542E-3</v>
@@ -5940,7 +5356,7 @@
         <v>0.40732644395724937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5954,7 +5370,7 @@
         <v>-0.77976289963230982</v>
       </c>
       <c r="E13">
-        <v>1.150316059392757E-4</v>
+        <v>2.9541145089472989E-5</v>
       </c>
       <c r="F13">
         <v>6.0195846836577083E-3</v>
@@ -5969,7 +5385,7 @@
         <v>0.27750660110040781</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5983,7 +5399,7 @@
         <v>-4.3782537878308478E-2</v>
       </c>
       <c r="E14">
-        <v>0.82640561772067289</v>
+        <v>0.82583371032057529</v>
       </c>
       <c r="F14">
         <v>1.6706210017147779E-5</v>
@@ -5998,7 +5414,7 @@
         <v>0.2302712107566024</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6012,7 +5428,7 @@
         <v>0.55672259718494865</v>
       </c>
       <c r="E15">
-        <v>3.409514069191938E-3</v>
+        <v>4.3815370683407961E-3</v>
       </c>
       <c r="F15">
         <v>2.8010412951076091E-3</v>
@@ -6027,7 +5443,7 @@
         <v>0.21710515860272431</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6041,7 +5457,7 @@
         <v>-0.77565070949358861</v>
       </c>
       <c r="E16">
-        <v>3.4229840351616878E-3</v>
+        <v>1.4430062864113969E-3</v>
       </c>
       <c r="F16">
         <v>3.5019436206866761E-3</v>
@@ -6070,7 +5486,7 @@
         <v>0.2218805624558175</v>
       </c>
       <c r="E17">
-        <v>0.28818189344342687</v>
+        <v>0.29521156696849898</v>
       </c>
       <c r="F17">
         <v>3.7803734112762388E-4</v>
@@ -6099,7 +5515,7 @@
         <v>0.16029278354856119</v>
       </c>
       <c r="E18">
-        <v>0.4733829447439355</v>
+        <v>0.47828695483658912</v>
       </c>
       <c r="F18">
         <v>1.734639835327956E-4</v>
@@ -6128,7 +5544,7 @@
         <v>-2.2011596606162059E-2</v>
       </c>
       <c r="E19">
-        <v>0.92531833878056691</v>
+        <v>0.92518847510314606</v>
       </c>
       <c r="F19">
         <v>3.0421129807445269E-6</v>
@@ -6157,7 +5573,7 @@
         <v>1.3058000108144481</v>
       </c>
       <c r="E20">
-        <v>1.8899698462342789E-10</v>
+        <v>3.5565336445221329E-10</v>
       </c>
       <c r="F20">
         <v>1.3573832035350449E-2</v>
@@ -6186,7 +5602,7 @@
         <v>-1.2538663897591391</v>
       </c>
       <c r="E21">
-        <v>1.6554667023112269E-3</v>
+        <v>2.0833458732700779E-4</v>
       </c>
       <c r="F21">
         <v>4.7455194473375872E-3</v>
@@ -6215,7 +5631,7 @@
         <v>2.3558448719018611E-2</v>
       </c>
       <c r="E22">
-        <v>0.93033755601550883</v>
+        <v>0.93046266177546799</v>
       </c>
       <c r="F22">
         <v>2.6272449639153091E-6</v>
@@ -6244,7 +5660,7 @@
         <v>-1.803666351510173</v>
       </c>
       <c r="E23">
-        <v>4.7238607633407929E-4</v>
+        <v>4.5597821007712013E-6</v>
       </c>
       <c r="F23">
         <v>7.2501691895552334E-3</v>
@@ -6273,7 +5689,7 @@
         <v>0.14006847287037949</v>
       </c>
       <c r="E24">
-        <v>0.60846487317885356</v>
+        <v>0.61208609146647242</v>
       </c>
       <c r="F24">
         <v>8.8721011880954492E-5</v>
@@ -6302,7 +5718,7 @@
         <v>0.42083779355905993</v>
       </c>
       <c r="E25">
-        <v>0.13941304303420951</v>
+        <v>0.14935796395930409</v>
       </c>
       <c r="F25">
         <v>7.1722365622706175E-4</v>
@@ -6331,7 +5747,7 @@
         <v>-0.49829506803065371</v>
       </c>
       <c r="E26">
-        <v>0.1356976300170793</v>
+        <v>0.11641837463367009</v>
       </c>
       <c r="F26">
         <v>8.504216668950848E-4</v>
@@ -6360,7 +5776,7 @@
         <v>-1.063493881432173</v>
       </c>
       <c r="E27">
-        <v>1.7808416896537239E-8</v>
+        <v>4.0544668356413098E-8</v>
       </c>
       <c r="F27">
         <v>1.0393078761752109E-2</v>
@@ -6389,7 +5805,7 @@
         <v>-0.22733503020857321</v>
       </c>
       <c r="E28">
-        <v>0.1880720161659353</v>
+        <v>0.18015777337001321</v>
       </c>
       <c r="F28">
         <v>6.197649076050693E-4</v>
@@ -6418,7 +5834,7 @@
         <v>-0.6854510262449709</v>
       </c>
       <c r="E29">
-        <v>4.2498936974868557E-4</v>
+        <v>1.6354910953781941E-4</v>
       </c>
       <c r="F29">
         <v>4.902519607953626E-3</v>
@@ -6447,7 +5863,7 @@
         <v>-0.31767730154247148</v>
       </c>
       <c r="E30">
-        <v>8.5774295713114554E-2</v>
+        <v>7.7571107052875288E-2</v>
       </c>
       <c r="F30">
         <v>1.0747580225939359E-3</v>
@@ -6476,7 +5892,7 @@
         <v>-0.73315725135642518</v>
       </c>
       <c r="E31">
-        <v>1.425583950663413E-3</v>
+        <v>5.7331435494443832E-4</v>
       </c>
       <c r="F31">
         <v>4.0921596082587053E-3</v>
@@ -6505,7 +5921,7 @@
         <v>-0.78541366343755681</v>
       </c>
       <c r="E32">
-        <v>3.0210899991347461E-3</v>
+        <v>1.2283606573447619E-3</v>
       </c>
       <c r="F32">
         <v>3.6044776525980819E-3</v>
@@ -6534,7 +5950,7 @@
         <v>-0.5478151508911201</v>
       </c>
       <c r="E33">
-        <v>3.1770786003982587E-2</v>
+        <v>2.3278501741920799E-2</v>
       </c>
       <c r="F33">
         <v>1.7760194477105531E-3</v>
@@ -6563,7 +5979,7 @@
         <v>-0.66281200750183489</v>
       </c>
       <c r="E34">
-        <v>3.6032046408530562E-2</v>
+        <v>2.4310740955173431E-2</v>
       </c>
       <c r="F34">
         <v>1.750047893899098E-3</v>
@@ -6592,7 +6008,7 @@
         <v>-1.028541496795196</v>
       </c>
       <c r="E35">
-        <v>6.3919192929633778E-3</v>
+        <v>1.965590721230588E-3</v>
       </c>
       <c r="F35">
         <v>3.3057612678886179E-3</v>
@@ -6621,7 +6037,7 @@
         <v>0.30682449288600661</v>
       </c>
       <c r="E36">
-        <v>0.24963631154387991</v>
+        <v>0.25898676969581758</v>
       </c>
       <c r="F36">
         <v>4.3961091118482898E-4</v>
@@ -6650,7 +6066,7 @@
         <v>0.18350389462552119</v>
       </c>
       <c r="E37">
-        <v>0.48361888477535347</v>
+        <v>0.48921536958091227</v>
       </c>
       <c r="F37">
         <v>1.6500577443501199E-4</v>
@@ -6679,7 +6095,7 @@
         <v>0.28524240273480589</v>
       </c>
       <c r="E38">
-        <v>0.28299831925963798</v>
+        <v>0.29196244327582899</v>
       </c>
       <c r="F38">
         <v>3.8316060492693538E-4</v>
@@ -6708,7 +6124,7 @@
         <v>-0.63439967323715507</v>
       </c>
       <c r="E39">
-        <v>0.10064993563140109</v>
+        <v>7.854017005133053E-2</v>
       </c>
       <c r="F39">
         <v>1.0677830360212861E-3</v>
@@ -6737,7 +6153,7 @@
         <v>-1.1091165869349799</v>
       </c>
       <c r="E40">
-        <v>1.9192182256092771E-2</v>
+        <v>6.9506436288821099E-3</v>
       </c>
       <c r="F40">
         <v>2.5136964576106808E-3</v>
@@ -6766,7 +6182,7 @@
         <v>-9.4468894802643089E-2</v>
       </c>
       <c r="E41">
-        <v>0.76771219321420991</v>
+        <v>0.76590302724883119</v>
       </c>
       <c r="F41">
         <v>3.0585228511625928E-5</v>
@@ -6795,7 +6211,7 @@
         <v>-0.83562835653423873</v>
       </c>
       <c r="E42">
-        <v>4.0144632611066801E-2</v>
+        <v>2.362256311496623E-2</v>
       </c>
       <c r="F42">
         <v>1.7672322353520229E-3</v>
@@ -6824,7 +6240,7 @@
         <v>-0.33752597749848312</v>
       </c>
       <c r="E43">
-        <v>0.34150938893840599</v>
+        <v>0.32583242522210371</v>
       </c>
       <c r="F43">
         <v>3.3307794478598662E-4</v>
@@ -6853,7 +6269,7 @@
         <v>-0.96285285188580783</v>
       </c>
       <c r="E44">
-        <v>4.3627993349387863E-2</v>
+        <v>2.3133733760999042E-2</v>
       </c>
       <c r="F44">
         <v>1.779757100908719E-3</v>
@@ -6882,7 +6298,7 @@
         <v>-2.8061681627041649E-2</v>
       </c>
       <c r="E45">
-        <v>0.93897728106772027</v>
+        <v>0.93883416329828984</v>
       </c>
       <c r="F45">
         <v>2.0315736668496949E-6</v>
@@ -6911,7 +6327,7 @@
         <v>-5.4629967486585759E-2</v>
       </c>
       <c r="E46">
-        <v>0.87550500925575769</v>
+        <v>0.87494065941122767</v>
       </c>
       <c r="F46">
         <v>8.5462358954124795E-6</v>
@@ -6940,7 +6356,7 @@
         <v>-0.19856985435334321</v>
       </c>
       <c r="E47">
-        <v>0.6001679742854924</v>
+        <v>0.59357959603267574</v>
       </c>
       <c r="F47">
         <v>9.8257446137561821E-5</v>
@@ -6969,7 +6385,7 @@
         <v>0.61704040702118879</v>
       </c>
       <c r="E48">
-        <v>4.7178567302023203E-2</v>
+        <v>5.4156620117838498E-2</v>
       </c>
       <c r="F48">
         <v>1.2792831849223201E-3</v>
@@ -6998,7 +6414,7 @@
         <v>-1.3664917338237159</v>
       </c>
       <c r="E49">
-        <v>2.351504738879201E-2</v>
+        <v>6.2195143054116766E-3</v>
       </c>
       <c r="F49">
         <v>2.5826647948646859E-3</v>
@@ -7027,7 +6443,7 @@
         <v>-0.51187274428051466</v>
       </c>
       <c r="E50">
-        <v>0.25485422519472489</v>
+        <v>0.22954917646883369</v>
       </c>
       <c r="F50">
         <v>4.9808731672562612E-4</v>
@@ -7056,7 +6472,7 @@
         <v>-0.76134966810999516</v>
       </c>
       <c r="E51">
-        <v>0.1149992982188601</v>
+        <v>8.5261373334975743E-2</v>
       </c>
       <c r="F51">
         <v>1.0218218202189271E-3</v>
@@ -7085,7 +6501,7 @@
         <v>-0.28611098021973358</v>
       </c>
       <c r="E52">
-        <v>0.50086842329254089</v>
+        <v>0.48914566335172549</v>
       </c>
       <c r="F52">
         <v>1.6505873285133091E-4</v>
@@ -7114,7 +6530,7 @@
         <v>-8.6787671683156528E-2</v>
       </c>
       <c r="E53">
-        <v>0.84153336559143832</v>
+        <v>0.84036206613409914</v>
       </c>
       <c r="F53">
         <v>1.399886078079504E-5</v>
@@ -7143,7 +6559,7 @@
         <v>-0.46948129964388502</v>
       </c>
       <c r="E54">
-        <v>0.34164895734721729</v>
+        <v>0.31811083969902321</v>
       </c>
       <c r="F54">
         <v>3.4387952427039631E-4</v>
@@ -7172,7 +6588,7 @@
         <v>-0.42639962830903472</v>
       </c>
       <c r="E55">
-        <v>0.38953485097804169</v>
+        <v>0.36883640366984338</v>
       </c>
       <c r="F55">
         <v>2.7863062681399148E-4</v>
@@ -7201,7 +6617,7 @@
         <v>-1.3904632050939301</v>
       </c>
       <c r="E56">
-        <v>5.9342596858666122E-2</v>
+        <v>2.1978458796489238E-2</v>
       </c>
       <c r="F56">
         <v>1.8104825796584349E-3</v>
@@ -7230,7 +6646,7 @@
         <v>0.1240428370048844</v>
       </c>
       <c r="E57">
-        <v>0.79645047361148991</v>
+        <v>0.7983185396389223</v>
       </c>
       <c r="F57">
         <v>2.252711589700862E-5</v>
@@ -7259,7 +6675,7 @@
         <v>5.4538808168895662E-2</v>
       </c>
       <c r="E58">
-        <v>0.90169396402088886</v>
+        <v>0.90211418989723247</v>
       </c>
       <c r="F58">
         <v>5.2190294652643132E-6</v>
@@ -7288,7 +6704,7 @@
         <v>-1.997114014002628</v>
       </c>
       <c r="E59">
-        <v>5.1024153879632793E-2</v>
+        <v>7.284851227951453E-3</v>
       </c>
       <c r="F59">
         <v>2.484603303589572E-3</v>
@@ -7317,7 +6733,7 @@
         <v>-1.900761081236253</v>
       </c>
       <c r="E60">
-        <v>6.3865242686975993E-2</v>
+        <v>1.2541425361058459E-2</v>
       </c>
       <c r="F60">
         <v>2.1503895639283228E-3</v>
@@ -7346,7 +6762,7 @@
         <v>-0.28507314845697618</v>
       </c>
       <c r="E61">
-        <v>0.57018462619196009</v>
+        <v>0.55957237131283888</v>
       </c>
       <c r="F61">
         <v>1.174599888170702E-4</v>
@@ -7375,7 +6791,7 @@
         <v>-0.17867096603829549</v>
       </c>
       <c r="E62">
-        <v>0.72483722089475988</v>
+        <v>0.72052244356752038</v>
       </c>
       <c r="F62">
         <v>4.4159882069183531E-5</v>
@@ -7404,7 +6820,7 @@
         <v>-0.23325888505529699</v>
       </c>
       <c r="E63">
-        <v>0.64395553654634452</v>
+        <v>0.63667900516099274</v>
       </c>
       <c r="F63">
         <v>7.6977785153031775E-5</v>
@@ -7433,7 +6849,7 @@
         <v>-0.38142608122335592</v>
       </c>
       <c r="E64">
-        <v>0.44330286510391792</v>
+        <v>0.4257951938141934</v>
       </c>
       <c r="F64">
         <v>2.188333478146953E-4</v>
@@ -7462,7 +6878,7 @@
         <v>-5.9847347561685138E-2</v>
       </c>
       <c r="E65">
-        <v>0.9073764502574464</v>
+        <v>0.90690346087693263</v>
       </c>
       <c r="F65">
         <v>4.718541163017953E-6</v>
@@ -7491,7 +6907,7 @@
         <v>-0.74721440183021948</v>
       </c>
       <c r="E66">
-        <v>0.23033130993936921</v>
+        <v>0.1908230999544013</v>
       </c>
       <c r="F66">
         <v>5.9041388928360305E-4</v>
@@ -7520,7 +6936,7 @@
         <v>0.66879954000562203</v>
       </c>
       <c r="E67">
-        <v>0.11959935970543251</v>
+        <v>0.1314382336840951</v>
       </c>
       <c r="F67">
         <v>7.8506790673316118E-4</v>
@@ -7549,7 +6965,7 @@
         <v>0.62406777768368182</v>
       </c>
       <c r="E68">
-        <v>0.16707876100301641</v>
+        <v>0.1803383948598794</v>
       </c>
       <c r="F68">
         <v>6.1925120836958669E-4</v>
@@ -7578,7 +6994,7 @@
         <v>-1.2553664586407669</v>
       </c>
       <c r="E69">
-        <v>9.0417997812461473E-2</v>
+        <v>4.4752126682087237E-2</v>
       </c>
       <c r="F69">
         <v>1.3897206268156379E-3</v>
@@ -7607,7 +7023,7 @@
         <v>0.34482301583863118</v>
       </c>
       <c r="E70">
-        <v>0.45350341497501467</v>
+        <v>0.46350285283419512</v>
       </c>
       <c r="F70">
         <v>1.8542090465634151E-4</v>
@@ -7636,7 +7052,7 @@
         <v>7.4723546195933313E-2</v>
       </c>
       <c r="E71">
-        <v>0.88638622708892889</v>
+        <v>0.88704664817504519</v>
       </c>
       <c r="F71">
         <v>6.9610979256395922E-6</v>
@@ -7665,7 +7081,7 @@
         <v>0.33324104855243047</v>
       </c>
       <c r="E72">
-        <v>0.50138137067771371</v>
+        <v>0.51063673017590083</v>
       </c>
       <c r="F72">
         <v>1.4931106503268679E-4</v>
@@ -7694,7 +7110,7 @@
         <v>-0.50874445756216247</v>
       </c>
       <c r="E73">
-        <v>0.42237362233268549</v>
+        <v>0.39706882776485958</v>
       </c>
       <c r="F73">
         <v>2.474423227494249E-4</v>
@@ -7723,7 +7139,7 @@
         <v>5.2110592127491756E-3</v>
       </c>
       <c r="E74">
-        <v>0.99197986946618955</v>
+        <v>0.99196655529900013</v>
       </c>
       <c r="F74">
         <v>3.4976869955904988E-8</v>
@@ -7752,7 +7168,7 @@
         <v>0.56952460434156116</v>
       </c>
       <c r="E75">
-        <v>0.23326055201921059</v>
+        <v>0.24731305557089681</v>
       </c>
       <c r="F75">
         <v>4.617795689859649E-4</v>
@@ -7781,7 +7197,7 @@
         <v>-1.099652871488336</v>
       </c>
       <c r="E76">
-        <v>0.14086318372089859</v>
+        <v>8.9351802781220027E-2</v>
       </c>
       <c r="F76">
         <v>9.9572871746733682E-4</v>
@@ -7810,7 +7226,7 @@
         <v>9.2733109114472273E-2</v>
       </c>
       <c r="E77">
-        <v>0.87418839138603821</v>
+        <v>0.87508687198967294</v>
       </c>
       <c r="F77">
         <v>8.5260986569801744E-6</v>
@@ -7839,7 +7255,7 @@
         <v>-0.36460465278907578</v>
       </c>
       <c r="E78">
-        <v>0.57017071370686734</v>
+        <v>0.55594366611848456</v>
       </c>
       <c r="F78">
         <v>1.196443580440132E-4</v>
@@ -7868,7 +7284,7 @@
         <v>-1.848946817834578</v>
       </c>
       <c r="E79">
-        <v>7.1804778609401473E-2</v>
+        <v>1.6435633848309952E-2</v>
       </c>
       <c r="F79">
         <v>1.9858104581985669E-3</v>
@@ -7897,7 +7313,7 @@
         <v>0.99386724734985321</v>
       </c>
       <c r="E80">
-        <v>4.1714571141615753E-2</v>
+        <v>4.773423164490212E-2</v>
       </c>
       <c r="F80">
         <v>1.3522385460077451E-3</v>
@@ -7912,7 +7328,7 @@
         <v>8.0890221414046462E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>372</v>
       </c>
@@ -7926,7 +7342,7 @@
         <v>0.41327154900099961</v>
       </c>
       <c r="E81">
-        <v>0.45210050806886548</v>
+        <v>0.46347296142673922</v>
       </c>
       <c r="F81">
         <v>1.8544569937517519E-4</v>
@@ -7941,7 +7357,7 @@
         <v>7.6012749622418094E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>373</v>
       </c>
@@ -7955,7 +7371,7 @@
         <v>0.50133301602801061</v>
       </c>
       <c r="E82">
-        <v>0.32519895847621288</v>
+        <v>0.33884782726772211</v>
       </c>
       <c r="F82">
         <v>3.1561825334214261E-4</v>
@@ -7970,7 +7386,7 @@
         <v>8.0890221414046462E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -7984,7 +7400,7 @@
         <v>-0.28455706990864688</v>
       </c>
       <c r="E83">
-        <v>0.61191521675870209</v>
+        <v>0.60209350493750602</v>
       </c>
       <c r="F83">
         <v>9.3793344207004914E-5</v>
@@ -7999,7 +7415,7 @@
         <v>8.7686440176889466E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -8013,7 +7429,7 @@
         <v>-19.141470529319118</v>
       </c>
       <c r="E84">
-        <v>0.99731324108582309</v>
+        <v>9.4643787862885766E-4</v>
       </c>
       <c r="F84">
         <v>3.7708915001491978E-3</v>
@@ -8027,8 +7443,11 @@
       <c r="I84">
         <v>8.5482847876368367E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>376</v>
       </c>
@@ -8042,7 +7461,7 @@
         <v>1.4725155365670171</v>
       </c>
       <c r="E85">
-        <v>2.9279109978196231E-3</v>
+        <v>2.9346906603182812E-3</v>
       </c>
       <c r="F85">
         <v>3.05260015378972E-3</v>
@@ -8057,7 +7476,7 @@
         <v>8.0890221414046476E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -8071,7 +7490,7 @@
         <v>-0.36460465278907628</v>
       </c>
       <c r="E86">
-        <v>0.57017071370686689</v>
+        <v>0.55594366611848456</v>
       </c>
       <c r="F86">
         <v>1.196443580440132E-4</v>
@@ -8086,7 +7505,7 @@
         <v>7.8490337428332294E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>378</v>
       </c>
@@ -8100,7 +7519,7 @@
         <v>1.231527363647672</v>
       </c>
       <c r="E87">
-        <v>1.162618825229062E-2</v>
+        <v>1.318055864894326E-2</v>
       </c>
       <c r="F87">
         <v>2.1200414176041349E-3</v>
@@ -8115,7 +7534,7 @@
         <v>8.0890221414046462E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -8129,7 +7548,7 @@
         <v>-1.540964386583332</v>
       </c>
       <c r="E88">
-        <v>0.13694296325658231</v>
+        <v>6.2604937890170784E-2</v>
       </c>
       <c r="F88">
         <v>1.1961785511034331E-3</v>
@@ -8144,9 +7563,9 @@
         <v>7.6012749622418108E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>152</v>
       </c>
       <c r="B89">
         <v>2582</v>
@@ -8155,27 +7574,27 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>-1.4663370687934281</v>
+        <v>0.1003423591530237</v>
       </c>
       <c r="E89">
-        <v>0.15805680088822141</v>
+        <v>0.41763996562068301</v>
       </c>
       <c r="F89">
-        <v>1.0469526999590251E-3</v>
+        <v>2.266589500589111E-4</v>
       </c>
       <c r="G89">
-        <v>5.1492768955474499E-3</v>
+        <v>1.3638365160730361E-2</v>
       </c>
       <c r="H89">
-        <v>5.422153369481022E-3</v>
+        <v>0.83423702556158019</v>
       </c>
       <c r="I89">
-        <v>7.3449595145612237E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.37193976535306572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="B90">
         <v>2582</v>
@@ -8184,27 +7603,27 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>-0.36460465278907611</v>
+        <v>-0.69801065436802867</v>
       </c>
       <c r="E90">
-        <v>0.57017071370686701</v>
+        <v>6.6884600835868561E-7</v>
       </c>
       <c r="F90">
-        <v>1.196443580435691E-4</v>
+        <v>8.5229537945846756E-3</v>
       </c>
       <c r="G90">
-        <v>2.0388569888600831E-3</v>
+        <v>7.0933294406297032E-2</v>
       </c>
       <c r="H90">
-        <v>6.1967467079783118E-3</v>
+        <v>0.89930286599535247</v>
       </c>
       <c r="I90">
-        <v>7.8490337428332294E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.30098555996389109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="B91">
         <v>2582</v>
@@ -8213,27 +7632,27 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>-0.77163104146419403</v>
+        <v>0.14501916371178869</v>
       </c>
       <c r="E91">
-        <v>0.31054757795303362</v>
+        <v>0.26220494239986109</v>
       </c>
       <c r="F91">
-        <v>4.2538255410440318E-4</v>
+        <v>4.3371549745074839E-4</v>
       </c>
       <c r="G91">
-        <v>3.5940669422036549E-3</v>
+        <v>1.7805108692252158E-2</v>
       </c>
       <c r="H91">
-        <v>5.8094500387296669E-3</v>
+        <v>0.1390395042602634</v>
       </c>
       <c r="I91">
-        <v>7.6012749622418094E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.34605476561121618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="B92">
         <v>2582</v>
@@ -8242,27 +7661,27 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>-1.2982451013178431</v>
+        <v>0.43008702184029329</v>
       </c>
       <c r="E92">
-        <v>0.21431262353823879</v>
+        <v>2.0379875671291249E-5</v>
       </c>
       <c r="F92">
-        <v>7.6081098767188937E-4</v>
+        <v>6.2632853205077943E-3</v>
       </c>
       <c r="G92">
-        <v>4.117817380333566E-3</v>
+        <v>8.6247981796263584E-2</v>
       </c>
       <c r="H92">
-        <v>4.6475600309837332E-3</v>
+        <v>0.25871417505809452</v>
       </c>
       <c r="I92">
-        <v>6.8027586535780199E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.43801307704343578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="B93">
         <v>2582</v>
@@ -8271,27 +7690,27 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>-1.540964386583332</v>
+        <v>-0.13310730440779309</v>
       </c>
       <c r="E93">
-        <v>0.13694296325658201</v>
+        <v>0.6207876744567149</v>
       </c>
       <c r="F93">
-        <v>1.1961785511035441E-3</v>
+        <v>8.4447509067442361E-5</v>
       </c>
       <c r="G93">
-        <v>5.6650066531545029E-3</v>
+        <v>3.7705219137023072E-3</v>
       </c>
       <c r="H93">
-        <v>5.8094500387296669E-3</v>
+        <v>0.97172734314484899</v>
       </c>
       <c r="I93">
-        <v>7.6012749622418094E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1657828645396166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="B94">
         <v>2582</v>
@@ -8300,27 +7719,27 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>-29.73992302289307</v>
+        <v>-2.9187372368339109E-2</v>
       </c>
       <c r="E94">
-        <v>0.99998416616972874</v>
+        <v>0.76175028047023141</v>
       </c>
       <c r="F94">
-        <v>2.179212851531553E-3</v>
+        <v>3.171413915470378E-5</v>
       </c>
       <c r="G94">
-        <v>5.6730273336771386E-3</v>
+        <v>6.5272298093403958E-3</v>
       </c>
       <c r="H94">
-        <v>4.2602633617350892E-3</v>
+        <v>0.33927188226181249</v>
       </c>
       <c r="I94">
-        <v>6.5144125681582885E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.47355393012208941</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="B95">
         <v>2582</v>
@@ -8329,27 +7748,27 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>-0.60353907398860995</v>
+        <v>-0.44476038477460739</v>
       </c>
       <c r="E95">
-        <v>0.43318157512492111</v>
+        <v>4.1355433547730837E-2</v>
       </c>
       <c r="F95">
-        <v>2.4224083679291741E-4</v>
+        <v>1.4357580914695629E-3</v>
       </c>
       <c r="G95">
-        <v>2.562607426989771E-3</v>
+        <v>1.8846995092145491E-2</v>
       </c>
       <c r="H95">
-        <v>5.034856700232378E-3</v>
+        <v>0.95972114639814099</v>
       </c>
       <c r="I95">
-        <v>7.0791580257084416E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.19665056541025919</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B96">
         <v>2582</v>
@@ -8358,27 +7777,27 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1.9267438672429871</v>
+        <v>1.018457873221994</v>
       </c>
       <c r="E96">
-        <v>1.3884606086161759E-3</v>
+        <v>2.4103530535049229E-2</v>
       </c>
       <c r="F96">
-        <v>3.910876174454514E-3</v>
+        <v>1.7551684462540069E-3</v>
       </c>
       <c r="G96">
-        <v>1.193397054966505E-2</v>
+        <v>9.8790721997599196E-3</v>
       </c>
       <c r="H96">
-        <v>5.034856700232378E-3</v>
+        <v>8.1332300542215335E-3</v>
       </c>
       <c r="I96">
-        <v>7.079158025708443E-2</v>
+        <v>8.9834326329544273E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>163</v>
       </c>
       <c r="B97">
         <v>2582</v>
@@ -8387,27 +7806,27 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>-1.2982451013178431</v>
+        <v>0.27150318616512359</v>
       </c>
       <c r="E97">
-        <v>0.21431262353823891</v>
+        <v>0.27371551873783601</v>
       </c>
       <c r="F97">
-        <v>7.6081098767188937E-4</v>
+        <v>4.1334332331943718E-4</v>
       </c>
       <c r="G97">
-        <v>4.117817380333566E-3</v>
+        <v>8.9679228923857934E-3</v>
       </c>
       <c r="H97">
-        <v>4.6475600309837332E-3</v>
+        <v>3.2145623547637489E-2</v>
       </c>
       <c r="I97">
-        <v>6.8027586535780199E-2</v>
+        <v>0.1764209080192623</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>389</v>
+        <v>164</v>
       </c>
       <c r="B98">
         <v>2582</v>
@@ -8416,27 +7835,27 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>-1.3857752850635949</v>
+        <v>-0.35273989808508122</v>
       </c>
       <c r="E98">
-        <v>0.18347359414570941</v>
+        <v>1.5962320674379481E-4</v>
       </c>
       <c r="F98">
-        <v>9.0161830663393339E-4</v>
+        <v>4.9182957633473467E-3</v>
       </c>
       <c r="G98">
-        <v>4.633547137940397E-3</v>
+        <v>8.4290133680682278E-2</v>
       </c>
       <c r="H98">
-        <v>5.034856700232378E-3</v>
+        <v>0.41944229279628198</v>
       </c>
       <c r="I98">
-        <v>7.0791580257084416E-2</v>
+        <v>0.49356337297144398</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="B99">
         <v>2582</v>
@@ -8445,27 +7864,27 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>-22.48473231000861</v>
+        <v>-1.033094842400597</v>
       </c>
       <c r="E99">
-        <v>0.99949150778735185</v>
+        <v>7.2393944669416833E-11</v>
       </c>
       <c r="F99">
-        <v>2.7754187815288711E-3</v>
+        <v>1.4647151846808979E-2</v>
       </c>
       <c r="G99">
-        <v>7.2202166064982984E-3</v>
+        <v>8.1659350469249992E-2</v>
       </c>
       <c r="H99">
-        <v>5.422153369481022E-3</v>
+        <v>0.92757552285050349</v>
       </c>
       <c r="I99">
-        <v>7.3449595145612237E-2</v>
+        <v>0.25923965863553899</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
       <c r="B100">
         <v>2582</v>
@@ -8474,630 +7893,21 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>-33.184417178577867</v>
+        <v>-0.30576010076752358</v>
       </c>
       <c r="E100">
-        <v>0.99999656664552494</v>
+        <v>1.8860954944719551E-3</v>
       </c>
       <c r="F100">
-        <v>2.5765938256852028E-3</v>
+        <v>3.3319201130458391E-3</v>
       </c>
       <c r="G100">
-        <v>6.7044868488910234E-3</v>
+        <v>6.6092813710872278E-2</v>
       </c>
       <c r="H100">
-        <v>5.034856700232378E-3</v>
+        <v>0.33423702556158019</v>
       </c>
       <c r="I100">
-        <v>7.0791580257084416E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>392</v>
-      </c>
-      <c r="B101">
-        <v>2582</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>-1.2024163837782831</v>
-      </c>
-      <c r="E101">
-        <v>0.25205231424190178</v>
-      </c>
-      <c r="F101">
-        <v>6.2534058534180481E-4</v>
-      </c>
-      <c r="G101">
-        <v>3.602087622726291E-3</v>
-      </c>
-      <c r="H101">
-        <v>4.2602633617350892E-3</v>
-      </c>
-      <c r="I101">
-        <v>6.5144125681582885E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>393</v>
-      </c>
-      <c r="B102">
-        <v>2582</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0.77150049480646676</v>
-      </c>
-      <c r="E102">
-        <v>0.18898090687920091</v>
-      </c>
-      <c r="F102">
-        <v>5.5859327022500516E-4</v>
-      </c>
-      <c r="G102">
-        <v>4.1659414634693803E-3</v>
-      </c>
-      <c r="H102">
-        <v>4.6475600309837332E-3</v>
-      </c>
-      <c r="I102">
-        <v>6.8027586535780213E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103">
-        <v>2582</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0.1234958530630673</v>
-      </c>
-      <c r="E103">
-        <v>0.85558046728652759</v>
-      </c>
-      <c r="F103">
-        <v>1.121444756901901E-5</v>
-      </c>
-      <c r="G103">
-        <v>5.3979179917496012E-4</v>
-      </c>
-      <c r="H103">
-        <v>4.2602633617350892E-3</v>
-      </c>
-      <c r="I103">
-        <v>6.5144125681582885E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>395</v>
-      </c>
-      <c r="B104">
-        <v>2582</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>-1.385775285063594</v>
-      </c>
-      <c r="E104">
-        <v>0.18347359414570971</v>
-      </c>
-      <c r="F104">
-        <v>9.0161830663393339E-4</v>
-      </c>
-      <c r="G104">
-        <v>4.633547137940397E-3</v>
-      </c>
-      <c r="H104">
-        <v>5.034856700232378E-3</v>
-      </c>
-      <c r="I104">
-        <v>7.0791580257084416E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>396</v>
-      </c>
-      <c r="B105">
-        <v>2582</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0.51915033365202479</v>
-      </c>
-      <c r="E105">
-        <v>0.35358866627997187</v>
-      </c>
-      <c r="F105">
-        <v>2.8029061261447552E-4</v>
-      </c>
-      <c r="G105">
-        <v>3.134481948255496E-3</v>
-      </c>
-      <c r="H105">
-        <v>5.422153369481022E-3</v>
-      </c>
-      <c r="I105">
-        <v>7.3449595145612237E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>397</v>
-      </c>
-      <c r="B106">
-        <v>2582</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>5.1948168771061556E-3</v>
-      </c>
-      <c r="E106">
-        <v>0.99379726821927539</v>
-      </c>
-      <c r="F106">
-        <v>2.0979275650034879E-8</v>
-      </c>
-      <c r="G106">
-        <v>2.4062041567907141E-5</v>
-      </c>
-      <c r="H106">
-        <v>4.6475600309837332E-3</v>
-      </c>
-      <c r="I106">
-        <v>6.8027586535780199E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>398</v>
-      </c>
-      <c r="B107">
-        <v>2582</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0.41274164749102821</v>
-      </c>
-      <c r="E107">
-        <v>0.50149439312165056</v>
-      </c>
-      <c r="F107">
-        <v>1.4817171186942699E-4</v>
-      </c>
-      <c r="G107">
-        <v>2.0950017525187552E-3</v>
-      </c>
-      <c r="H107">
-        <v>4.6475600309837332E-3</v>
-      </c>
-      <c r="I107">
-        <v>6.8027586535780213E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>399</v>
-      </c>
-      <c r="B108">
-        <v>2582</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>-0.28353053561204938</v>
-      </c>
-      <c r="E108">
-        <v>0.72030873237309279</v>
-      </c>
-      <c r="F108">
-        <v>4.672304288733109E-5</v>
-      </c>
-      <c r="G108">
-        <v>1.015418154168835E-3</v>
-      </c>
-      <c r="H108">
-        <v>3.8729666924864452E-3</v>
-      </c>
-      <c r="I108">
-        <v>6.2124565013363477E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>400</v>
-      </c>
-      <c r="B109">
-        <v>2582</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>3.421526463300578</v>
-      </c>
-      <c r="E109">
-        <v>1.11729170981169E-3</v>
-      </c>
-      <c r="F109">
-        <v>7.515961104927471E-3</v>
-      </c>
-      <c r="G109">
-        <v>1.503636977583001E-2</v>
-      </c>
-      <c r="H109">
-        <v>4.2602633617350892E-3</v>
-      </c>
-      <c r="I109">
-        <v>6.5144125681582885E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110">
-        <v>2582</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0.23045254671294099</v>
-      </c>
-      <c r="E110">
-        <v>5.59046390533251E-2</v>
-      </c>
-      <c r="F110">
-        <v>1.296508642028682E-3</v>
-      </c>
-      <c r="G110">
-        <v>3.4219431381874887E-2</v>
-      </c>
-      <c r="H110">
-        <v>0.80945003872966692</v>
-      </c>
-      <c r="I110">
-        <v>0.39281093871504458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111">
-        <v>2582</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>-0.69801065436802867</v>
-      </c>
-      <c r="E111">
-        <v>3.3500825012310251E-7</v>
-      </c>
-      <c r="F111">
-        <v>8.5229537945846756E-3</v>
-      </c>
-      <c r="G111">
-        <v>7.0933294406297032E-2</v>
-      </c>
-      <c r="H111">
-        <v>0.89930286599535247</v>
-      </c>
-      <c r="I111">
-        <v>0.30098555996389109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112">
-        <v>2582</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0.14501916371178869</v>
-      </c>
-      <c r="E112">
-        <v>0.25842270058676547</v>
-      </c>
-      <c r="F112">
-        <v>4.3371549745074839E-4</v>
-      </c>
-      <c r="G112">
-        <v>1.7805108692252158E-2</v>
-      </c>
-      <c r="H112">
-        <v>0.1390395042602634</v>
-      </c>
-      <c r="I112">
-        <v>0.34605476561121618</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>156</v>
-      </c>
-      <c r="B113">
-        <v>2582</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0.43008702184029329</v>
-      </c>
-      <c r="E113">
-        <v>1.6308034168369039E-5</v>
-      </c>
-      <c r="F113">
-        <v>6.2632853205077943E-3</v>
-      </c>
-      <c r="G113">
-        <v>8.6247981796263584E-2</v>
-      </c>
-      <c r="H113">
-        <v>0.25871417505809452</v>
-      </c>
-      <c r="I113">
-        <v>0.43801307704343578</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114">
-        <v>2582</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>-0.13310730440779309</v>
-      </c>
-      <c r="E114">
-        <v>0.61740516982005011</v>
-      </c>
-      <c r="F114">
-        <v>8.4447509067442361E-5</v>
-      </c>
-      <c r="G114">
-        <v>3.7705219137023072E-3</v>
-      </c>
-      <c r="H114">
-        <v>0.97172734314484899</v>
-      </c>
-      <c r="I114">
-        <v>0.1657828645396166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115">
-        <v>2582</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>-2.9187372368339109E-2</v>
-      </c>
-      <c r="E115">
-        <v>0.76193796410917791</v>
-      </c>
-      <c r="F115">
-        <v>3.171413915470378E-5</v>
-      </c>
-      <c r="G115">
-        <v>6.5272298093403958E-3</v>
-      </c>
-      <c r="H115">
-        <v>0.33927188226181249</v>
-      </c>
-      <c r="I115">
-        <v>0.47355393012208941</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116">
-        <v>2582</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>-0.44476038477460739</v>
-      </c>
-      <c r="E116">
-        <v>3.6531037287372503E-2</v>
-      </c>
-      <c r="F116">
-        <v>1.4357580914695629E-3</v>
-      </c>
-      <c r="G116">
-        <v>1.8846995092145491E-2</v>
-      </c>
-      <c r="H116">
-        <v>0.95972114639814099</v>
-      </c>
-      <c r="I116">
-        <v>0.19665056541025919</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>401</v>
-      </c>
-      <c r="B117">
-        <v>2582</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>1.018457873221994</v>
-      </c>
-      <c r="E117">
-        <v>2.043699599515204E-2</v>
-      </c>
-      <c r="F117">
-        <v>1.7551684462540069E-3</v>
-      </c>
-      <c r="G117">
-        <v>9.8790721997599196E-3</v>
-      </c>
-      <c r="H117">
-        <v>8.1332300542215335E-3</v>
-      </c>
-      <c r="I117">
-        <v>8.9834326329544273E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118">
-        <v>2582</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0.27150318616512359</v>
-      </c>
-      <c r="E118">
-        <v>0.26524735216218742</v>
-      </c>
-      <c r="F118">
-        <v>4.1334332331943718E-4</v>
-      </c>
-      <c r="G118">
-        <v>8.9679228923857934E-3</v>
-      </c>
-      <c r="H118">
-        <v>3.2145623547637489E-2</v>
-      </c>
-      <c r="I118">
-        <v>0.1764209080192623</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>164</v>
-      </c>
-      <c r="B119">
-        <v>2582</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>-0.35273989808508122</v>
-      </c>
-      <c r="E119">
-        <v>1.8088219275913821E-4</v>
-      </c>
-      <c r="F119">
-        <v>4.9182957633473467E-3</v>
-      </c>
-      <c r="G119">
-        <v>8.4290133680682278E-2</v>
-      </c>
-      <c r="H119">
-        <v>0.41944229279628198</v>
-      </c>
-      <c r="I119">
-        <v>0.49356337297144398</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>165</v>
-      </c>
-      <c r="B120">
-        <v>2582</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>-1.033094842400597</v>
-      </c>
-      <c r="E120">
-        <v>2.2783652272356551E-11</v>
-      </c>
-      <c r="F120">
-        <v>1.4647151846808979E-2</v>
-      </c>
-      <c r="G120">
-        <v>8.1659350469249992E-2</v>
-      </c>
-      <c r="H120">
-        <v>0.92757552285050349</v>
-      </c>
-      <c r="I120">
-        <v>0.25923965863553899</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121">
-        <v>2582</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>-0.30576010076752358</v>
-      </c>
-      <c r="E121">
-        <v>2.1227505242452649E-3</v>
-      </c>
-      <c r="F121">
-        <v>3.3319201130458391E-3</v>
-      </c>
-      <c r="G121">
-        <v>6.6092813710872278E-2</v>
-      </c>
-      <c r="H121">
-        <v>0.33423702556158019</v>
-      </c>
-      <c r="I121">
         <v>0.4718144253541236</v>
       </c>
     </row>
